--- a/biology/Zoologie/Coelognathus_helena/Coelognathus_helena.xlsx
+++ b/biology/Zoologie/Coelognathus_helena/Coelognathus_helena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coelognathus helena  ou Serpent ratier indien[1] est une espèce de serpents de la famille des Colubridae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coelognathus helena  ou Serpent ratier indien est une espèce de serpents de la famille des Colubridae.
 Cette espèce est communément appelée Trinket Snake en anglais.
 </t>
         </is>
@@ -512,14 +524,16 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Bangladesh ;
 en  Inde, dans les États d'Andhra Pradesh, Chhattisgarh, Karnataka, Kerala,  Madhya Pradesh, Maharashtra, Orissa et Tamil Nadu ;
 au Népal  ;
 à Sri Lanka, où elle est présente jusqu'à 900 m d'altitude.
-Sa présence est incertaine au Pakistan[2].
+Sa présence est incertaine au Pakistan.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coelognathus helena[3] mesure de 90 à 100 cm pour les mâles et de 120 à 130 cm (maximum observé 168 cm) pour les femelles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coelognathus helena mesure de 90 à 100 cm pour les mâles et de 120 à 130 cm (maximum observé 168 cm) pour les femelles.
 Pour intimider ses ennemis, il se redresse et élargit son cou.
 Il chasse et dévore des mammifères, essentiellement la nuit.
 </t>
@@ -581,9 +597,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 août 2011)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 août 2011) :
 Coelognathus helena helena (Daudin, 1803)
 Coelognathus helena monticollaris (Schulz, 1992)</t>
         </is>
@@ -613,7 +631,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, créée initialement sous le genre Coluber, a été reclassée au fil du temps dans différents genres (Herpetodryas Schlegel, 1837 ; Plagiodon Duméril &amp; Bibron, 1854 ; Cynophis Günther, 1858 ; Coluber Boulenger, 1894 ; Elaphe Smith, 1943 puis enfin Coelognathus Helfenberger, 2001).
 Elle reste bien souvent référencée sous Elaphe helena, à tort, dans de nombreuses sources.
@@ -645,7 +665,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Daudin, 1803 : Histoire Naturelle Générale et Particulière des Reptiles, vol. 6.
 Schulz, 1992 : Die geographischen Unterarten der Indischen Schmucknatter Elaphe helena (Daudin, 1803). Salamandra, vol. 28, no 1, p. 14-24.</t>
